--- a/data/update2019/ospree_2019update_dl.xlsx
+++ b/data/update2019/ospree_2019update_dl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/ospree/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/ospree/data/update2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1623CC-F355-8D42-AC08-E093A0944977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B290ED-A3F4-B14D-87CA-F0153F3EA855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37960" yWindow="940" windowWidth="37540" windowHeight="18180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="4500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="331">
   <si>
     <t>datasetID</t>
   </si>
@@ -1062,13 +1062,25 @@
     <t>control</t>
   </si>
   <si>
-    <t>Fig 2a</t>
-  </si>
-  <si>
-    <t>Fig 2b</t>
-  </si>
-  <si>
     <t>Used 12 climate-control units. Forcing temps from  Fig 1, not +0, +1, +2, +3,+4,+5. Have both a single no-chamber and chamber control referred to as control, &amp; 2 chambers for each trt lvl, likely the 12 points in fig 2</t>
+  </si>
+  <si>
+    <t>ambient+0</t>
+  </si>
+  <si>
+    <t>ambient+1</t>
+  </si>
+  <si>
+    <t>ambient+2</t>
+  </si>
+  <si>
+    <t>ambient+3</t>
+  </si>
+  <si>
+    <t>ambient+4</t>
+  </si>
+  <si>
+    <t>ambient+5</t>
   </si>
 </sst>
 </file>
@@ -3077,7 +3089,7 @@
         <v>300</v>
       </c>
       <c r="T2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3092,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BA77"/>
+  <dimension ref="A1:BA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="Y7" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3295,8 +3307,8 @@
       <c r="O2" t="s">
         <v>308</v>
       </c>
-      <c r="U2">
-        <v>7.5</v>
+      <c r="U2" t="s">
+        <v>298</v>
       </c>
       <c r="W2" t="s">
         <v>298</v>
@@ -3345,8 +3357,8 @@
       <c r="O3" t="s">
         <v>308</v>
       </c>
-      <c r="U3">
-        <v>7.8</v>
+      <c r="U3" t="s">
+        <v>325</v>
       </c>
       <c r="W3" t="s">
         <v>298</v>
@@ -3404,8 +3416,8 @@
       <c r="O4" t="s">
         <v>308</v>
       </c>
-      <c r="U4">
-        <v>8.9</v>
+      <c r="U4" t="s">
+        <v>326</v>
       </c>
       <c r="W4" t="s">
         <v>298</v>
@@ -3463,8 +3475,8 @@
       <c r="O5" t="s">
         <v>308</v>
       </c>
-      <c r="U5">
-        <v>9.6</v>
+      <c r="U5" t="s">
+        <v>327</v>
       </c>
       <c r="W5" t="s">
         <v>298</v>
@@ -3522,8 +3534,8 @@
       <c r="O6" t="s">
         <v>308</v>
       </c>
-      <c r="U6">
-        <v>10.6</v>
+      <c r="U6" t="s">
+        <v>328</v>
       </c>
       <c r="W6" t="s">
         <v>298</v>
@@ -3581,8 +3593,8 @@
       <c r="O7" t="s">
         <v>308</v>
       </c>
-      <c r="U7">
-        <v>11.3</v>
+      <c r="U7" t="s">
+        <v>329</v>
       </c>
       <c r="W7" t="s">
         <v>298</v>
@@ -3640,8 +3652,8 @@
       <c r="O8" t="s">
         <v>308</v>
       </c>
-      <c r="U8">
-        <v>12.6</v>
+      <c r="U8" t="s">
+        <v>330</v>
       </c>
       <c r="W8" t="s">
         <v>298</v>
@@ -3699,8 +3711,8 @@
       <c r="O9" t="s">
         <v>308</v>
       </c>
-      <c r="U9">
-        <v>7.5</v>
+      <c r="U9" t="s">
+        <v>298</v>
       </c>
       <c r="W9" t="s">
         <v>309</v>
@@ -3752,8 +3764,8 @@
       <c r="O10" t="s">
         <v>308</v>
       </c>
-      <c r="U10">
-        <v>7.8</v>
+      <c r="U10" t="s">
+        <v>325</v>
       </c>
       <c r="W10" t="s">
         <v>309</v>
@@ -3811,8 +3823,8 @@
       <c r="O11" t="s">
         <v>308</v>
       </c>
-      <c r="U11">
-        <v>8.9</v>
+      <c r="U11" t="s">
+        <v>326</v>
       </c>
       <c r="W11" t="s">
         <v>309</v>
@@ -3870,8 +3882,8 @@
       <c r="O12" t="s">
         <v>308</v>
       </c>
-      <c r="U12">
-        <v>9.6</v>
+      <c r="U12" t="s">
+        <v>327</v>
       </c>
       <c r="W12" t="s">
         <v>309</v>
@@ -3929,8 +3941,8 @@
       <c r="O13" t="s">
         <v>308</v>
       </c>
-      <c r="U13">
-        <v>10.6</v>
+      <c r="U13" t="s">
+        <v>328</v>
       </c>
       <c r="W13" t="s">
         <v>309</v>
@@ -3988,8 +4000,8 @@
       <c r="O14" t="s">
         <v>308</v>
       </c>
-      <c r="U14">
-        <v>11.3</v>
+      <c r="U14" t="s">
+        <v>329</v>
       </c>
       <c r="W14" t="s">
         <v>309</v>
@@ -4047,8 +4059,8 @@
       <c r="O15" t="s">
         <v>308</v>
       </c>
-      <c r="U15">
-        <v>12.6</v>
+      <c r="U15" t="s">
+        <v>330</v>
       </c>
       <c r="W15" t="s">
         <v>309</v>
@@ -4106,8 +4118,8 @@
       <c r="O16" t="s">
         <v>308</v>
       </c>
-      <c r="U16">
-        <v>7.5</v>
+      <c r="U16" t="s">
+        <v>298</v>
       </c>
       <c r="W16" t="s">
         <v>298</v>
@@ -4159,8 +4171,8 @@
       <c r="O17" t="s">
         <v>308</v>
       </c>
-      <c r="U17">
-        <v>7.8</v>
+      <c r="U17" t="s">
+        <v>325</v>
       </c>
       <c r="W17" t="s">
         <v>298</v>
@@ -4218,8 +4230,8 @@
       <c r="O18" t="s">
         <v>308</v>
       </c>
-      <c r="U18">
-        <v>8.9</v>
+      <c r="U18" t="s">
+        <v>326</v>
       </c>
       <c r="W18" t="s">
         <v>298</v>
@@ -4277,8 +4289,8 @@
       <c r="O19" t="s">
         <v>308</v>
       </c>
-      <c r="U19">
-        <v>9.6</v>
+      <c r="U19" t="s">
+        <v>327</v>
       </c>
       <c r="W19" t="s">
         <v>298</v>
@@ -4336,8 +4348,8 @@
       <c r="O20" t="s">
         <v>308</v>
       </c>
-      <c r="U20">
-        <v>10.6</v>
+      <c r="U20" t="s">
+        <v>328</v>
       </c>
       <c r="W20" t="s">
         <v>298</v>
@@ -4395,8 +4407,8 @@
       <c r="O21" t="s">
         <v>308</v>
       </c>
-      <c r="U21">
-        <v>11.3</v>
+      <c r="U21" t="s">
+        <v>329</v>
       </c>
       <c r="W21" t="s">
         <v>298</v>
@@ -4454,8 +4466,8 @@
       <c r="O22" t="s">
         <v>308</v>
       </c>
-      <c r="U22">
-        <v>12.6</v>
+      <c r="U22" t="s">
+        <v>330</v>
       </c>
       <c r="W22" t="s">
         <v>298</v>
@@ -4513,8 +4525,8 @@
       <c r="O23" t="s">
         <v>308</v>
       </c>
-      <c r="U23">
-        <v>7.5</v>
+      <c r="U23" t="s">
+        <v>298</v>
       </c>
       <c r="W23" t="s">
         <v>309</v>
@@ -4566,8 +4578,8 @@
       <c r="O24" t="s">
         <v>308</v>
       </c>
-      <c r="U24">
-        <v>7.8</v>
+      <c r="U24" t="s">
+        <v>325</v>
       </c>
       <c r="W24" t="s">
         <v>309</v>
@@ -4625,8 +4637,8 @@
       <c r="O25" t="s">
         <v>308</v>
       </c>
-      <c r="U25">
-        <v>8.9</v>
+      <c r="U25" t="s">
+        <v>326</v>
       </c>
       <c r="W25" t="s">
         <v>309</v>
@@ -4684,8 +4696,8 @@
       <c r="O26" t="s">
         <v>308</v>
       </c>
-      <c r="U26">
-        <v>9.6</v>
+      <c r="U26" t="s">
+        <v>327</v>
       </c>
       <c r="W26" t="s">
         <v>309</v>
@@ -4743,8 +4755,8 @@
       <c r="O27" t="s">
         <v>308</v>
       </c>
-      <c r="U27">
-        <v>10.6</v>
+      <c r="U27" t="s">
+        <v>328</v>
       </c>
       <c r="W27" t="s">
         <v>309</v>
@@ -4802,8 +4814,8 @@
       <c r="O28" t="s">
         <v>308</v>
       </c>
-      <c r="U28">
-        <v>11.3</v>
+      <c r="U28" t="s">
+        <v>329</v>
       </c>
       <c r="W28" t="s">
         <v>309</v>
@@ -4861,8 +4873,8 @@
       <c r="O29" t="s">
         <v>308</v>
       </c>
-      <c r="U29">
-        <v>12.6</v>
+      <c r="U29" t="s">
+        <v>330</v>
       </c>
       <c r="W29" t="s">
         <v>309</v>
@@ -4889,2406 +4901,6 @@
         <v>51.317</v>
       </c>
       <c r="AG29">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" t="s">
-        <v>303</v>
-      </c>
-      <c r="G30" t="s">
-        <v>306</v>
-      </c>
-      <c r="M30" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30">
-        <v>2016</v>
-      </c>
-      <c r="O30" t="s">
-        <v>308</v>
-      </c>
-      <c r="U30">
-        <v>7.6989999999999998</v>
-      </c>
-      <c r="W30" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA30">
-        <v>128.23500000000001</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF30">
-        <v>51.317</v>
-      </c>
-      <c r="AG30">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" t="s">
-        <v>303</v>
-      </c>
-      <c r="G31" t="s">
-        <v>306</v>
-      </c>
-      <c r="M31" t="s">
-        <v>307</v>
-      </c>
-      <c r="N31">
-        <v>2016</v>
-      </c>
-      <c r="O31" t="s">
-        <v>308</v>
-      </c>
-      <c r="U31">
-        <v>7.9029999999999996</v>
-      </c>
-      <c r="W31" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA31">
-        <v>129.48500000000001</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF31">
-        <v>51.317</v>
-      </c>
-      <c r="AG31">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" t="s">
-        <v>306</v>
-      </c>
-      <c r="M32" t="s">
-        <v>307</v>
-      </c>
-      <c r="N32">
-        <v>2016</v>
-      </c>
-      <c r="O32" t="s">
-        <v>308</v>
-      </c>
-      <c r="U32">
-        <v>8.7040000000000006</v>
-      </c>
-      <c r="W32" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA32">
-        <v>127.35299999999999</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF32">
-        <v>51.317</v>
-      </c>
-      <c r="AG32">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E33" t="s">
-        <v>303</v>
-      </c>
-      <c r="G33" t="s">
-        <v>306</v>
-      </c>
-      <c r="M33" t="s">
-        <v>307</v>
-      </c>
-      <c r="N33">
-        <v>2016</v>
-      </c>
-      <c r="O33" t="s">
-        <v>308</v>
-      </c>
-      <c r="U33">
-        <v>9.3010000000000002</v>
-      </c>
-      <c r="W33" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA33">
-        <v>123.015</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF33">
-        <v>51.317</v>
-      </c>
-      <c r="AG33">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" t="s">
-        <v>306</v>
-      </c>
-      <c r="M34" t="s">
-        <v>307</v>
-      </c>
-      <c r="N34">
-        <v>2016</v>
-      </c>
-      <c r="O34" t="s">
-        <v>308</v>
-      </c>
-      <c r="U34">
-        <v>9.6</v>
-      </c>
-      <c r="W34" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA34">
-        <v>128.08799999999999</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF34">
-        <v>51.317</v>
-      </c>
-      <c r="AG34">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E35" t="s">
-        <v>303</v>
-      </c>
-      <c r="G35" t="s">
-        <v>306</v>
-      </c>
-      <c r="M35" t="s">
-        <v>307</v>
-      </c>
-      <c r="N35">
-        <v>2016</v>
-      </c>
-      <c r="O35" t="s">
-        <v>308</v>
-      </c>
-      <c r="U35">
-        <v>9.702</v>
-      </c>
-      <c r="W35" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA35">
-        <v>125.956</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF35">
-        <v>51.317</v>
-      </c>
-      <c r="AG35">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" t="s">
-        <v>303</v>
-      </c>
-      <c r="G36" t="s">
-        <v>306</v>
-      </c>
-      <c r="M36" t="s">
-        <v>307</v>
-      </c>
-      <c r="N36">
-        <v>2016</v>
-      </c>
-      <c r="O36" t="s">
-        <v>308</v>
-      </c>
-      <c r="U36">
-        <v>10.102</v>
-      </c>
-      <c r="W36" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA36">
-        <v>124.926</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF36">
-        <v>51.317</v>
-      </c>
-      <c r="AG36">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" t="s">
-        <v>306</v>
-      </c>
-      <c r="M37" t="s">
-        <v>307</v>
-      </c>
-      <c r="N37">
-        <v>2016</v>
-      </c>
-      <c r="O37" t="s">
-        <v>308</v>
-      </c>
-      <c r="U37">
-        <v>11.095000000000001</v>
-      </c>
-      <c r="W37" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA37">
-        <v>120.88200000000001</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF37">
-        <v>51.317</v>
-      </c>
-      <c r="AG37">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C38" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" t="s">
-        <v>303</v>
-      </c>
-      <c r="G38" t="s">
-        <v>306</v>
-      </c>
-      <c r="M38" t="s">
-        <v>307</v>
-      </c>
-      <c r="N38">
-        <v>2016</v>
-      </c>
-      <c r="O38" t="s">
-        <v>308</v>
-      </c>
-      <c r="U38">
-        <v>11.202</v>
-      </c>
-      <c r="W38" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA38">
-        <v>119.926</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF38">
-        <v>51.317</v>
-      </c>
-      <c r="AG38">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" t="s">
-        <v>302</v>
-      </c>
-      <c r="E39" t="s">
-        <v>303</v>
-      </c>
-      <c r="G39" t="s">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s">
-        <v>307</v>
-      </c>
-      <c r="N39">
-        <v>2016</v>
-      </c>
-      <c r="O39" t="s">
-        <v>308</v>
-      </c>
-      <c r="U39">
-        <v>11.494999999999999</v>
-      </c>
-      <c r="W39" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA39">
-        <v>114.33799999999999</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF39">
-        <v>51.317</v>
-      </c>
-      <c r="AG39">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E40" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" t="s">
-        <v>306</v>
-      </c>
-      <c r="M40" t="s">
-        <v>307</v>
-      </c>
-      <c r="N40">
-        <v>2016</v>
-      </c>
-      <c r="O40" t="s">
-        <v>308</v>
-      </c>
-      <c r="U40">
-        <v>12.295999999999999</v>
-      </c>
-      <c r="W40" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA40">
-        <v>111.029</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF40">
-        <v>51.317</v>
-      </c>
-      <c r="AG40">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" t="s">
-        <v>303</v>
-      </c>
-      <c r="G41" t="s">
-        <v>306</v>
-      </c>
-      <c r="M41" t="s">
-        <v>307</v>
-      </c>
-      <c r="N41">
-        <v>2016</v>
-      </c>
-      <c r="O41" t="s">
-        <v>308</v>
-      </c>
-      <c r="U41">
-        <v>12.888</v>
-      </c>
-      <c r="W41" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA41">
-        <v>106.029</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF41">
-        <v>51.317</v>
-      </c>
-      <c r="AG41">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" t="s">
-        <v>302</v>
-      </c>
-      <c r="E42" t="s">
-        <v>303</v>
-      </c>
-      <c r="G42" t="s">
-        <v>306</v>
-      </c>
-      <c r="M42" t="s">
-        <v>307</v>
-      </c>
-      <c r="N42">
-        <v>2016</v>
-      </c>
-      <c r="O42" t="s">
-        <v>308</v>
-      </c>
-      <c r="U42">
-        <v>7.7050000000000001</v>
-      </c>
-      <c r="W42" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA42">
-        <v>129.04400000000001</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF42">
-        <v>51.317</v>
-      </c>
-      <c r="AG42">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" t="s">
-        <v>306</v>
-      </c>
-      <c r="M43" t="s">
-        <v>307</v>
-      </c>
-      <c r="N43">
-        <v>2016</v>
-      </c>
-      <c r="O43" t="s">
-        <v>308</v>
-      </c>
-      <c r="U43">
-        <v>7.9089999999999998</v>
-      </c>
-      <c r="W43" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA43">
-        <v>132.35300000000001</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF43">
-        <v>51.317</v>
-      </c>
-      <c r="AG43">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" t="s">
-        <v>303</v>
-      </c>
-      <c r="G44" t="s">
-        <v>306</v>
-      </c>
-      <c r="M44" t="s">
-        <v>307</v>
-      </c>
-      <c r="N44">
-        <v>2016</v>
-      </c>
-      <c r="O44" t="s">
-        <v>308</v>
-      </c>
-      <c r="U44">
-        <v>8.7040000000000006</v>
-      </c>
-      <c r="W44" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA44">
-        <v>129.11799999999999</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF44">
-        <v>51.317</v>
-      </c>
-      <c r="AG44">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45" t="s">
-        <v>306</v>
-      </c>
-      <c r="M45" t="s">
-        <v>307</v>
-      </c>
-      <c r="N45">
-        <v>2016</v>
-      </c>
-      <c r="O45" t="s">
-        <v>308</v>
-      </c>
-      <c r="U45">
-        <v>9.2949999999999999</v>
-      </c>
-      <c r="W45" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA45">
-        <v>123.75</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF45">
-        <v>51.317</v>
-      </c>
-      <c r="AG45">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" t="s">
-        <v>302</v>
-      </c>
-      <c r="E46" t="s">
-        <v>303</v>
-      </c>
-      <c r="G46" t="s">
-        <v>306</v>
-      </c>
-      <c r="M46" t="s">
-        <v>307</v>
-      </c>
-      <c r="N46">
-        <v>2016</v>
-      </c>
-      <c r="O46" t="s">
-        <v>308</v>
-      </c>
-      <c r="U46">
-        <v>9.5820000000000007</v>
-      </c>
-      <c r="W46" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA46">
-        <v>128.38200000000001</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF46">
-        <v>51.317</v>
-      </c>
-      <c r="AG46">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" t="s">
-        <v>303</v>
-      </c>
-      <c r="G47" t="s">
-        <v>306</v>
-      </c>
-      <c r="M47" t="s">
-        <v>307</v>
-      </c>
-      <c r="N47">
-        <v>2016</v>
-      </c>
-      <c r="O47" t="s">
-        <v>308</v>
-      </c>
-      <c r="U47">
-        <v>9.7080000000000002</v>
-      </c>
-      <c r="W47" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA47">
-        <v>128.309</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF47">
-        <v>51.317</v>
-      </c>
-      <c r="AG47">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" t="s">
-        <v>303</v>
-      </c>
-      <c r="G48" t="s">
-        <v>306</v>
-      </c>
-      <c r="M48" t="s">
-        <v>307</v>
-      </c>
-      <c r="N48">
-        <v>2016</v>
-      </c>
-      <c r="O48" t="s">
-        <v>308</v>
-      </c>
-      <c r="U48">
-        <v>10.096</v>
-      </c>
-      <c r="W48" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA48">
-        <v>127.059</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF48">
-        <v>51.317</v>
-      </c>
-      <c r="AG48">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" t="s">
-        <v>303</v>
-      </c>
-      <c r="G49" t="s">
-        <v>306</v>
-      </c>
-      <c r="M49" t="s">
-        <v>307</v>
-      </c>
-      <c r="N49">
-        <v>2016</v>
-      </c>
-      <c r="O49" t="s">
-        <v>308</v>
-      </c>
-      <c r="U49">
-        <v>11.089</v>
-      </c>
-      <c r="W49" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA49">
-        <v>120.515</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF49">
-        <v>51.317</v>
-      </c>
-      <c r="AG49">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" t="s">
-        <v>284</v>
-      </c>
-      <c r="D50" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" t="s">
-        <v>303</v>
-      </c>
-      <c r="G50" t="s">
-        <v>306</v>
-      </c>
-      <c r="M50" t="s">
-        <v>307</v>
-      </c>
-      <c r="N50">
-        <v>2016</v>
-      </c>
-      <c r="O50" t="s">
-        <v>308</v>
-      </c>
-      <c r="U50">
-        <v>11.202</v>
-      </c>
-      <c r="W50" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA50">
-        <v>121.39700000000001</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF50">
-        <v>51.317</v>
-      </c>
-      <c r="AG50">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D51" t="s">
-        <v>302</v>
-      </c>
-      <c r="E51" t="s">
-        <v>303</v>
-      </c>
-      <c r="G51" t="s">
-        <v>306</v>
-      </c>
-      <c r="M51" t="s">
-        <v>307</v>
-      </c>
-      <c r="N51">
-        <v>2016</v>
-      </c>
-      <c r="O51" t="s">
-        <v>308</v>
-      </c>
-      <c r="U51">
-        <v>11.507</v>
-      </c>
-      <c r="W51" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA51">
-        <v>122.059</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF51">
-        <v>51.317</v>
-      </c>
-      <c r="AG51">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" t="s">
-        <v>295</v>
-      </c>
-      <c r="C52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" t="s">
-        <v>303</v>
-      </c>
-      <c r="G52" t="s">
-        <v>306</v>
-      </c>
-      <c r="M52" t="s">
-        <v>307</v>
-      </c>
-      <c r="N52">
-        <v>2016</v>
-      </c>
-      <c r="O52" t="s">
-        <v>308</v>
-      </c>
-      <c r="U52">
-        <v>12.29</v>
-      </c>
-      <c r="W52" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA52">
-        <v>119.11799999999999</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF52">
-        <v>51.317</v>
-      </c>
-      <c r="AG52">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" t="s">
-        <v>284</v>
-      </c>
-      <c r="D53" t="s">
-        <v>302</v>
-      </c>
-      <c r="E53" t="s">
-        <v>303</v>
-      </c>
-      <c r="G53" t="s">
-        <v>306</v>
-      </c>
-      <c r="M53" t="s">
-        <v>307</v>
-      </c>
-      <c r="N53">
-        <v>2016</v>
-      </c>
-      <c r="O53" t="s">
-        <v>308</v>
-      </c>
-      <c r="U53">
-        <v>12.888</v>
-      </c>
-      <c r="W53" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA53">
-        <v>113.38200000000001</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF53">
-        <v>51.317</v>
-      </c>
-      <c r="AG53">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>295</v>
-      </c>
-      <c r="C54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" t="s">
-        <v>306</v>
-      </c>
-      <c r="M54" t="s">
-        <v>307</v>
-      </c>
-      <c r="N54">
-        <v>2016</v>
-      </c>
-      <c r="O54" t="s">
-        <v>308</v>
-      </c>
-      <c r="U54">
-        <v>7.7229999999999999</v>
-      </c>
-      <c r="W54" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA54">
-        <v>101.292</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF54">
-        <v>51.317</v>
-      </c>
-      <c r="AG54">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" t="s">
-        <v>306</v>
-      </c>
-      <c r="M55" t="s">
-        <v>307</v>
-      </c>
-      <c r="N55">
-        <v>2016</v>
-      </c>
-      <c r="O55" t="s">
-        <v>308</v>
-      </c>
-      <c r="U55">
-        <v>7.8780000000000001</v>
-      </c>
-      <c r="W55" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA55">
-        <v>98.561000000000007</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF55">
-        <v>51.317</v>
-      </c>
-      <c r="AG55">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" t="s">
-        <v>305</v>
-      </c>
-      <c r="E56" t="s">
-        <v>304</v>
-      </c>
-      <c r="G56" t="s">
-        <v>306</v>
-      </c>
-      <c r="M56" t="s">
-        <v>307</v>
-      </c>
-      <c r="N56">
-        <v>2016</v>
-      </c>
-      <c r="O56" t="s">
-        <v>308</v>
-      </c>
-      <c r="U56">
-        <v>8.69</v>
-      </c>
-      <c r="W56" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA56">
-        <v>96.421000000000006</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF56">
-        <v>51.317</v>
-      </c>
-      <c r="AG56">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" t="s">
-        <v>295</v>
-      </c>
-      <c r="C57" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E57" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" t="s">
-        <v>306</v>
-      </c>
-      <c r="M57" t="s">
-        <v>307</v>
-      </c>
-      <c r="N57">
-        <v>2016</v>
-      </c>
-      <c r="O57" t="s">
-        <v>308</v>
-      </c>
-      <c r="U57">
-        <v>9.2989999999999995</v>
-      </c>
-      <c r="W57" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA57">
-        <v>96.272999999999996</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF57">
-        <v>51.317</v>
-      </c>
-      <c r="AG57">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" t="s">
-        <v>295</v>
-      </c>
-      <c r="C58" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E58" t="s">
-        <v>304</v>
-      </c>
-      <c r="G58" t="s">
-        <v>306</v>
-      </c>
-      <c r="M58" t="s">
-        <v>307</v>
-      </c>
-      <c r="N58">
-        <v>2016</v>
-      </c>
-      <c r="O58" t="s">
-        <v>308</v>
-      </c>
-      <c r="U58">
-        <v>9.7119999999999997</v>
-      </c>
-      <c r="W58" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA58">
-        <v>95.460999999999999</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF58">
-        <v>51.317</v>
-      </c>
-      <c r="AG58">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" t="s">
-        <v>284</v>
-      </c>
-      <c r="D59" t="s">
-        <v>305</v>
-      </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-      <c r="G59" t="s">
-        <v>306</v>
-      </c>
-      <c r="M59" t="s">
-        <v>307</v>
-      </c>
-      <c r="N59">
-        <v>2016</v>
-      </c>
-      <c r="O59" t="s">
-        <v>308</v>
-      </c>
-      <c r="U59">
-        <v>9.5619999999999994</v>
-      </c>
-      <c r="W59" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA59">
-        <v>92.287999999999997</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF59">
-        <v>51.317</v>
-      </c>
-      <c r="AG59">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" t="s">
-        <v>284</v>
-      </c>
-      <c r="D60" t="s">
-        <v>305</v>
-      </c>
-      <c r="E60" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" t="s">
-        <v>306</v>
-      </c>
-      <c r="M60" t="s">
-        <v>307</v>
-      </c>
-      <c r="N60">
-        <v>2016</v>
-      </c>
-      <c r="O60" t="s">
-        <v>308</v>
-      </c>
-      <c r="U60">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="W60" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA60">
-        <v>91.180999999999997</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF60">
-        <v>51.317</v>
-      </c>
-      <c r="AG60">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>210</v>
-      </c>
-      <c r="B61" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" t="s">
-        <v>306</v>
-      </c>
-      <c r="M61" t="s">
-        <v>307</v>
-      </c>
-      <c r="N61">
-        <v>2016</v>
-      </c>
-      <c r="O61" t="s">
-        <v>308</v>
-      </c>
-      <c r="U61">
-        <v>11.097</v>
-      </c>
-      <c r="W61" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA61">
-        <v>90.221000000000004</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF61">
-        <v>51.317</v>
-      </c>
-      <c r="AG61">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" t="s">
-        <v>295</v>
-      </c>
-      <c r="C62" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" t="s">
-        <v>305</v>
-      </c>
-      <c r="E62" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="M62" t="s">
-        <v>307</v>
-      </c>
-      <c r="N62">
-        <v>2016</v>
-      </c>
-      <c r="O62" t="s">
-        <v>308</v>
-      </c>
-      <c r="U62">
-        <v>11.217000000000001</v>
-      </c>
-      <c r="W62" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA62">
-        <v>91.55</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF62">
-        <v>51.317</v>
-      </c>
-      <c r="AG62">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" t="s">
-        <v>284</v>
-      </c>
-      <c r="D63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E63" t="s">
-        <v>304</v>
-      </c>
-      <c r="G63" t="s">
-        <v>306</v>
-      </c>
-      <c r="M63" t="s">
-        <v>307</v>
-      </c>
-      <c r="N63">
-        <v>2016</v>
-      </c>
-      <c r="O63" t="s">
-        <v>308</v>
-      </c>
-      <c r="U63">
-        <v>11.509</v>
-      </c>
-      <c r="W63" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA63">
-        <v>89.631</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF63">
-        <v>51.317</v>
-      </c>
-      <c r="AG63">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64" t="s">
-        <v>304</v>
-      </c>
-      <c r="G64" t="s">
-        <v>306</v>
-      </c>
-      <c r="M64" t="s">
-        <v>307</v>
-      </c>
-      <c r="N64">
-        <v>2016</v>
-      </c>
-      <c r="O64" t="s">
-        <v>308</v>
-      </c>
-      <c r="U64">
-        <v>12.327999999999999</v>
-      </c>
-      <c r="W64" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA64">
-        <v>82.102999999999994</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF64">
-        <v>51.317</v>
-      </c>
-      <c r="AG64">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" t="s">
-        <v>305</v>
-      </c>
-      <c r="E65" t="s">
-        <v>304</v>
-      </c>
-      <c r="G65" t="s">
-        <v>306</v>
-      </c>
-      <c r="M65" t="s">
-        <v>307</v>
-      </c>
-      <c r="N65">
-        <v>2016</v>
-      </c>
-      <c r="O65" t="s">
-        <v>308</v>
-      </c>
-      <c r="U65">
-        <v>12.823</v>
-      </c>
-      <c r="W65" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA65">
-        <v>78.635000000000005</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF65">
-        <v>51.317</v>
-      </c>
-      <c r="AG65">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" t="s">
-        <v>284</v>
-      </c>
-      <c r="D66" t="s">
-        <v>305</v>
-      </c>
-      <c r="E66" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" t="s">
-        <v>306</v>
-      </c>
-      <c r="M66" t="s">
-        <v>307</v>
-      </c>
-      <c r="N66">
-        <v>2016</v>
-      </c>
-      <c r="O66" t="s">
-        <v>308</v>
-      </c>
-      <c r="U66">
-        <v>7.7290000000000001</v>
-      </c>
-      <c r="W66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA66">
-        <v>101.292</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF66">
-        <v>51.317</v>
-      </c>
-      <c r="AG66">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67" t="s">
-        <v>284</v>
-      </c>
-      <c r="D67" t="s">
-        <v>305</v>
-      </c>
-      <c r="E67" t="s">
-        <v>304</v>
-      </c>
-      <c r="G67" t="s">
-        <v>306</v>
-      </c>
-      <c r="M67" t="s">
-        <v>307</v>
-      </c>
-      <c r="N67">
-        <v>2016</v>
-      </c>
-      <c r="O67" t="s">
-        <v>308</v>
-      </c>
-      <c r="U67">
-        <v>7.8780000000000001</v>
-      </c>
-      <c r="W67" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA67">
-        <v>99.373000000000005</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF67">
-        <v>51.317</v>
-      </c>
-      <c r="AG67">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B68" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" t="s">
-        <v>305</v>
-      </c>
-      <c r="E68" t="s">
-        <v>304</v>
-      </c>
-      <c r="G68" t="s">
-        <v>306</v>
-      </c>
-      <c r="M68" t="s">
-        <v>307</v>
-      </c>
-      <c r="N68">
-        <v>2016</v>
-      </c>
-      <c r="O68" t="s">
-        <v>308</v>
-      </c>
-      <c r="U68">
-        <v>8.6839999999999993</v>
-      </c>
-      <c r="W68" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA68">
-        <v>98.412999999999997</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF68">
-        <v>51.317</v>
-      </c>
-      <c r="AG68">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" t="s">
-        <v>284</v>
-      </c>
-      <c r="D69" t="s">
-        <v>305</v>
-      </c>
-      <c r="E69" t="s">
-        <v>304</v>
-      </c>
-      <c r="G69" t="s">
-        <v>306</v>
-      </c>
-      <c r="M69" t="s">
-        <v>307</v>
-      </c>
-      <c r="N69">
-        <v>2016</v>
-      </c>
-      <c r="O69" t="s">
-        <v>308</v>
-      </c>
-      <c r="U69">
-        <v>9.2989999999999995</v>
-      </c>
-      <c r="W69" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA69">
-        <v>92.878</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF69">
-        <v>51.317</v>
-      </c>
-      <c r="AG69">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" t="s">
-        <v>284</v>
-      </c>
-      <c r="D70" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" t="s">
-        <v>304</v>
-      </c>
-      <c r="G70" t="s">
-        <v>306</v>
-      </c>
-      <c r="M70" t="s">
-        <v>307</v>
-      </c>
-      <c r="N70">
-        <v>2016</v>
-      </c>
-      <c r="O70" t="s">
-        <v>308</v>
-      </c>
-      <c r="U70">
-        <v>9.5559999999999992</v>
-      </c>
-      <c r="W70" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA70">
-        <v>92.656999999999996</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF70">
-        <v>51.317</v>
-      </c>
-      <c r="AG70">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" t="s">
-        <v>304</v>
-      </c>
-      <c r="G71" t="s">
-        <v>306</v>
-      </c>
-      <c r="M71" t="s">
-        <v>307</v>
-      </c>
-      <c r="N71">
-        <v>2016</v>
-      </c>
-      <c r="O71" t="s">
-        <v>308</v>
-      </c>
-      <c r="U71">
-        <v>9.7059999999999995</v>
-      </c>
-      <c r="W71" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA71">
-        <v>95.683000000000007</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF71">
-        <v>51.317</v>
-      </c>
-      <c r="AG71">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" t="s">
-        <v>305</v>
-      </c>
-      <c r="E72" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" t="s">
-        <v>306</v>
-      </c>
-      <c r="M72" t="s">
-        <v>307</v>
-      </c>
-      <c r="N72">
-        <v>2016</v>
-      </c>
-      <c r="O72" t="s">
-        <v>308</v>
-      </c>
-      <c r="U72">
-        <v>10.135999999999999</v>
-      </c>
-      <c r="W72" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA72">
-        <v>89.41</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF72">
-        <v>51.317</v>
-      </c>
-      <c r="AG72">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" t="s">
-        <v>305</v>
-      </c>
-      <c r="E73" t="s">
-        <v>304</v>
-      </c>
-      <c r="G73" t="s">
-        <v>306</v>
-      </c>
-      <c r="M73" t="s">
-        <v>307</v>
-      </c>
-      <c r="N73">
-        <v>2016</v>
-      </c>
-      <c r="O73" t="s">
-        <v>308</v>
-      </c>
-      <c r="U73">
-        <v>11.103</v>
-      </c>
-      <c r="W73" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA73">
-        <v>88.671999999999997</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF73">
-        <v>51.317</v>
-      </c>
-      <c r="AG73">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>210</v>
-      </c>
-      <c r="B74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" t="s">
-        <v>305</v>
-      </c>
-      <c r="E74" t="s">
-        <v>304</v>
-      </c>
-      <c r="G74" t="s">
-        <v>306</v>
-      </c>
-      <c r="M74" t="s">
-        <v>307</v>
-      </c>
-      <c r="N74">
-        <v>2016</v>
-      </c>
-      <c r="O74" t="s">
-        <v>308</v>
-      </c>
-      <c r="U74">
-        <v>11.228999999999999</v>
-      </c>
-      <c r="W74" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA74">
-        <v>90.59</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF74">
-        <v>51.317</v>
-      </c>
-      <c r="AG74">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" t="s">
-        <v>305</v>
-      </c>
-      <c r="E75" t="s">
-        <v>304</v>
-      </c>
-      <c r="G75" t="s">
-        <v>306</v>
-      </c>
-      <c r="M75" t="s">
-        <v>307</v>
-      </c>
-      <c r="N75">
-        <v>2016</v>
-      </c>
-      <c r="O75" t="s">
-        <v>308</v>
-      </c>
-      <c r="U75">
-        <v>11.497</v>
-      </c>
-      <c r="W75" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA75">
-        <v>88.007000000000005</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF75">
-        <v>51.317</v>
-      </c>
-      <c r="AG75">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" t="s">
-        <v>305</v>
-      </c>
-      <c r="E76" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" t="s">
-        <v>306</v>
-      </c>
-      <c r="M76" t="s">
-        <v>307</v>
-      </c>
-      <c r="N76">
-        <v>2016</v>
-      </c>
-      <c r="O76" t="s">
-        <v>308</v>
-      </c>
-      <c r="U76">
-        <v>12.321999999999999</v>
-      </c>
-      <c r="W76" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA76">
-        <v>82.325000000000003</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF76">
-        <v>51.317</v>
-      </c>
-      <c r="AG76">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" t="s">
-        <v>284</v>
-      </c>
-      <c r="D77" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" t="s">
-        <v>304</v>
-      </c>
-      <c r="G77" t="s">
-        <v>306</v>
-      </c>
-      <c r="M77" t="s">
-        <v>307</v>
-      </c>
-      <c r="N77">
-        <v>2016</v>
-      </c>
-      <c r="O77" t="s">
-        <v>308</v>
-      </c>
-      <c r="U77">
-        <v>12.829000000000001</v>
-      </c>
-      <c r="W77" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA77">
-        <v>78.707999999999998</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF77">
-        <v>51.317</v>
-      </c>
-      <c r="AG77">
         <v>4.3499999999999996</v>
       </c>
     </row>
